--- a/results/I3_N5_M2_T15_C150_DepCentral_s3_P5_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s3_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>258.5057182373471</v>
+        <v>974.6997292210331</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005000114440917969</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728903</v>
+        <v>20.71423809492234</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.957840319717379</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.94333144582801</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.33000000005805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.99</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.069516742254631</v>
+        <v>6.579377207014334</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.11016360191877</v>
+        <v>9.684936737920157</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.49124371379367</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>13.61204927984102</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,146 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>139.7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>150.6599999999994</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>137.9249999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>143.1449999999994</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.7149999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999985</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999984</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.6150000000119</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.72000000000794</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.41000000000494</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>152.9850000000009</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.2300000000009</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>159.1650000000129</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.630000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>161.495000000006</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>85.66500000000057</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>77.02500000000057</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>77.97500000001263</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>86.04000000000867</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.91000000000567</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9850000000009</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.2300000000009</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>159.1650000000129</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.630000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>161.495000000006</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>139.7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>150.6599999999994</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>137.9249999999994</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>143.1449999999994</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>141.7149999999994</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.985000000000859</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.230000000000874</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.165000000012924</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.630000000008977</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>11.49500000000597</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1530,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.659999999999421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1610,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1888,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,10 +2110,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1929,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1940,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1951,7 +2146,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1962,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1970,12 +2165,56 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
